--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Repo_Dikshant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48510AB4-83CE-4633-BC28-08F4B52FCE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EB682C-98A9-4664-9E3F-4316FBF22FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9D389F6E-4A1A-49B2-872C-AF1DFBB929C8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <si>
     <t>sr no</t>
   </si>
@@ -255,6 +255,108 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Xpath of facebook Application</t>
+  </si>
+  <si>
+    <t>Login email or phone number</t>
+  </si>
+  <si>
+    <t>//input[@type="password"]</t>
+  </si>
+  <si>
+    <t>Login password</t>
+  </si>
+  <si>
+    <t>//button[@value="1"]</t>
+  </si>
+  <si>
+    <t>Login button</t>
+  </si>
+  <si>
+    <t>//a[text()="Forgotten password?"]</t>
+  </si>
+  <si>
+    <t>//a[text()="Create a Page"]</t>
+  </si>
+  <si>
+    <t>Create a Page feature</t>
+  </si>
+  <si>
+    <t>Forgotten password feature</t>
+  </si>
+  <si>
+    <t>//a[text()="Sign Up"]</t>
+  </si>
+  <si>
+    <t>facebook Sign Up feature</t>
+  </si>
+  <si>
+    <t>//a[text()="Messenger"]</t>
+  </si>
+  <si>
+    <t>Messenger feature</t>
+  </si>
+  <si>
+    <t>//a[text()="Facebook Lite"]</t>
+  </si>
+  <si>
+    <t>Facebook Lite</t>
+  </si>
+  <si>
+    <t>facebook Careers</t>
+  </si>
+  <si>
+    <t>//a[text()="Privacy Policy"]</t>
+  </si>
+  <si>
+    <t>facebook Privacy Policy feature</t>
+  </si>
+  <si>
+    <t>//a[text()="Privacy Centre"]</t>
+  </si>
+  <si>
+    <t>facebook Privacy Centre feature</t>
+  </si>
+  <si>
+    <t>//a[text()="Create ad"]</t>
+  </si>
+  <si>
+    <t>facebook Create ad feature</t>
+  </si>
+  <si>
+    <t>//a[text()="Fundraisers"]</t>
+  </si>
+  <si>
+    <t>Fundraisers feature</t>
+  </si>
+  <si>
+    <t>Xpath of Orangrhrm Application</t>
+  </si>
+  <si>
+    <t>//input[@name="username"]</t>
+  </si>
+  <si>
+    <t>Login username</t>
+  </si>
+  <si>
+    <t>//input[@name="password"]</t>
+  </si>
+  <si>
+    <t>//button[@type="submit"]</t>
+  </si>
+  <si>
+    <t>//p[@class="oxd-text oxd-text--p orangehrm-login-forgot-header"]</t>
+  </si>
+  <si>
+    <t>Forgot password button</t>
+  </si>
+  <si>
+    <t>//input[@class="oxd-input oxd-input--active"]</t>
+  </si>
+  <si>
+    <t>Search box</t>
   </si>
 </sst>
 </file>
@@ -297,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -308,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,16 +728,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FE9B65-7F9A-4C1D-A8A5-A13547ABC901}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="30.26953125" customWidth="1"/>
-    <col min="3" max="3" width="47.81640625" customWidth="1"/>
+    <col min="3" max="3" width="59.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1041,6 +1146,259 @@
         <v>71</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C40" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="C58" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Repo_Dikshant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EB682C-98A9-4664-9E3F-4316FBF22FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F81350C-919A-4EA6-BA6D-92C6F017F3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9D389F6E-4A1A-49B2-872C-AF1DFBB929C8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
   <si>
     <t>sr no</t>
   </si>
@@ -332,31 +332,99 @@
     <t>Fundraisers feature</t>
   </si>
   <si>
-    <t>Xpath of Orangrhrm Application</t>
-  </si>
-  <si>
     <t>//input[@name="username"]</t>
   </si>
   <si>
-    <t>Login username</t>
-  </si>
-  <si>
-    <t>//input[@name="password"]</t>
-  </si>
-  <si>
-    <t>//button[@type="submit"]</t>
-  </si>
-  <si>
-    <t>//p[@class="oxd-text oxd-text--p orangehrm-login-forgot-header"]</t>
-  </si>
-  <si>
-    <t>Forgot password button</t>
-  </si>
-  <si>
-    <t>//input[@class="oxd-input oxd-input--active"]</t>
-  </si>
-  <si>
-    <t>Search box</t>
+    <t>Xpath of make my trip Application</t>
+  </si>
+  <si>
+    <t>//div[@data-cy="account"]</t>
+  </si>
+  <si>
+    <t>Login or create account feature</t>
+  </si>
+  <si>
+    <t>Enter email or mobile number</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Enter your work email id"]</t>
+  </si>
+  <si>
+    <t>Enter workemail feature</t>
+  </si>
+  <si>
+    <t>//a[text()="Forgot Login Id?"]</t>
+  </si>
+  <si>
+    <t>Forgot login id feature</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Enter your mobile number"]</t>
+  </si>
+  <si>
+    <t>verify Enter your mobile number 
+feature</t>
+  </si>
+  <si>
+    <t>//button[text()="CONTINUE"]</t>
+  </si>
+  <si>
+    <t>verify your mobile number 
+feature button</t>
+  </si>
+  <si>
+    <t>//a[@data-cy="LoginFlowPopup_97"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy policy </t>
+  </si>
+  <si>
+    <t>//a[@data-cy="LoginFlowPopup_98"]</t>
+  </si>
+  <si>
+    <t>User agreement</t>
+  </si>
+  <si>
+    <t>//a[text()="T&amp;Cs"]</t>
+  </si>
+  <si>
+    <t>Terms and Conditions</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Enter City"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter current city </t>
+  </si>
+  <si>
+    <t>//input[@placeholder="To"]</t>
+  </si>
+  <si>
+    <t>Enter destination city</t>
+  </si>
+  <si>
+    <t>//span[@data-cy="departureDate"]</t>
+  </si>
+  <si>
+    <t>Departure date</t>
+  </si>
+  <si>
+    <t>//p[text()="Select Date"]</t>
+  </si>
+  <si>
+    <t>Select Departure date</t>
+  </si>
+  <si>
+    <t>//div[text()="Rooms &amp; Guests"]</t>
+  </si>
+  <si>
+    <t>Rooms And Guest feature</t>
+  </si>
+  <si>
+    <t>//p[text()="Select Rooms"]</t>
+  </si>
+  <si>
+    <t>Select rooms feature</t>
   </si>
 </sst>
 </file>
@@ -728,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FE9B65-7F9A-4C1D-A8A5-A13547ABC901}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,12 +1370,13 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
+      <c r="C57" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
-      <c r="C58" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
@@ -1317,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
         <v>99</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1328,10 +1397,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1339,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1350,54 +1419,152 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>5</v>
       </c>
-      <c r="B64" t="s">
-        <v>105</v>
+      <c r="B64" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
